--- a/pkg/data-raw/info.default.xlsx
+++ b/pkg/data-raw/info.default.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\3PGpyr\r3PGNmix\pkg\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\3PGpyrd32\New folder\i3PGmiX\pkg\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85C9F35-1EF8-4E9B-A2F5-5F5C72F4848D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32CBD0-6636-426C-82CB-58CAD436E8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="920">
   <si>
     <t>pFS2</t>
   </si>
@@ -2739,12 +2739,6 @@
   </si>
   <si>
     <t>stem_harv</t>
-  </si>
-  <si>
-    <t>crop_trees</t>
-  </si>
-  <si>
-    <t>harv_trees</t>
   </si>
   <si>
     <t>mean dbh of crop trees</t>
@@ -6160,8 +6154,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8154,7 +8148,7 @@
         <v>496</v>
       </c>
       <c r="D91" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -8628,10 +8622,10 @@
         <v>889</v>
       </c>
       <c r="D112" t="s">
+        <v>540</v>
+      </c>
+      <c r="E112" t="s">
         <v>901</v>
-      </c>
-      <c r="E112" t="s">
-        <v>903</v>
       </c>
       <c r="F112" t="s">
         <v>311</v>
@@ -8651,10 +8645,10 @@
         <v>893</v>
       </c>
       <c r="D113" t="s">
-        <v>901</v>
+        <v>540</v>
       </c>
       <c r="E113" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F113" t="s">
         <v>314</v>
@@ -8674,10 +8668,10 @@
         <v>894</v>
       </c>
       <c r="D114" t="s">
-        <v>901</v>
+        <v>540</v>
       </c>
       <c r="E114" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F114" t="s">
         <v>303</v>
@@ -8697,10 +8691,10 @@
         <v>895</v>
       </c>
       <c r="D115" t="s">
-        <v>901</v>
+        <v>540</v>
       </c>
       <c r="E115" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F115" t="s">
         <v>383</v>
@@ -8720,10 +8714,10 @@
         <v>896</v>
       </c>
       <c r="D116" t="s">
-        <v>901</v>
+        <v>540</v>
       </c>
       <c r="E116" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F116" t="s">
         <v>327</v>
@@ -8743,10 +8737,10 @@
         <v>897</v>
       </c>
       <c r="D117" t="s">
-        <v>902</v>
+        <v>540</v>
       </c>
       <c r="E117" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F117" t="s">
         <v>311</v>
@@ -8766,10 +8760,10 @@
         <v>898</v>
       </c>
       <c r="D118" t="s">
-        <v>902</v>
+        <v>540</v>
       </c>
       <c r="E118" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F118" t="s">
         <v>314</v>
@@ -8789,10 +8783,10 @@
         <v>899</v>
       </c>
       <c r="D119" t="s">
-        <v>902</v>
+        <v>540</v>
       </c>
       <c r="E119" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F119" t="s">
         <v>383</v>
@@ -8812,10 +8806,10 @@
         <v>900</v>
       </c>
       <c r="D120" t="s">
-        <v>902</v>
+        <v>540</v>
       </c>
       <c r="E120" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F120" t="s">
         <v>884</v>
@@ -9888,13 +9882,13 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D172" t="s">
         <v>876</v>
       </c>
       <c r="E172" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F172" t="s">
         <v>383</v>
@@ -9934,7 +9928,7 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D174" t="s">
         <v>876</v>
@@ -9957,7 +9951,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D175" t="s">
         <v>876</v>
@@ -9980,7 +9974,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D176" t="s">
         <v>876</v>
@@ -10003,7 +9997,7 @@
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D177" t="s">
         <v>876</v>
@@ -10026,7 +10020,7 @@
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D178" t="s">
         <v>876</v>
@@ -10049,7 +10043,7 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D179" t="s">
         <v>876</v>
@@ -10072,7 +10066,7 @@
         <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D180" t="s">
         <v>876</v>
@@ -10095,7 +10089,7 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D181" t="s">
         <v>876</v>
